--- a/Excel dataset/Product details.xlsx
+++ b/Excel dataset/Product details.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksh\Desktop\Akshansh\Coding\Github\Retail-etl\Excel dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06DE016C-19CF-4813-94FE-29BBA3217CE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C375BDA-F36F-4420-AA9F-D47A3E8E2246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{7766C29D-CFA9-4CD9-896C-E4E15AB9AA41}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9420" xr2:uid="{7766C29D-CFA9-4CD9-896C-E4E15AB9AA41}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
   <si>
     <t>Product_ID</t>
   </si>
@@ -549,6 +549,399 @@
   </si>
   <si>
     <t>nonfat milk</t>
+  </si>
+  <si>
+    <t>WHL</t>
+  </si>
+  <si>
+    <t>5 star</t>
+  </si>
+  <si>
+    <t>56W</t>
+  </si>
+  <si>
+    <t>white wine</t>
+  </si>
+  <si>
+    <t>I3L</t>
+  </si>
+  <si>
+    <t>kissan puree</t>
+  </si>
+  <si>
+    <t>NTA</t>
+  </si>
+  <si>
+    <t>MTR Achaar</t>
+  </si>
+  <si>
+    <t>MOE</t>
+  </si>
+  <si>
+    <t>mint</t>
+  </si>
+  <si>
+    <t>V9H</t>
+  </si>
+  <si>
+    <t>clothes accessories</t>
+  </si>
+  <si>
+    <t>OWA</t>
+  </si>
+  <si>
+    <t>deggi mirch</t>
+  </si>
+  <si>
+    <t>4ZE</t>
+  </si>
+  <si>
+    <t>pepsi</t>
+  </si>
+  <si>
+    <t>2K4</t>
+  </si>
+  <si>
+    <t>MTR Idli</t>
+  </si>
+  <si>
+    <t>DGB</t>
+  </si>
+  <si>
+    <t>white coffee</t>
+  </si>
+  <si>
+    <t>FUA</t>
+  </si>
+  <si>
+    <t>cerelac</t>
+  </si>
+  <si>
+    <t>1EO</t>
+  </si>
+  <si>
+    <t>broccoli</t>
+  </si>
+  <si>
+    <t>TEU</t>
+  </si>
+  <si>
+    <t>mayonnaise</t>
+  </si>
+  <si>
+    <t>Z23</t>
+  </si>
+  <si>
+    <t>burger sauce</t>
+  </si>
+  <si>
+    <t>2LA</t>
+  </si>
+  <si>
+    <t>almonds</t>
+  </si>
+  <si>
+    <t>69K</t>
+  </si>
+  <si>
+    <t>ginger garlic paste</t>
+  </si>
+  <si>
+    <t>GGP</t>
+  </si>
+  <si>
+    <t>bacon</t>
+  </si>
+  <si>
+    <t>L28</t>
+  </si>
+  <si>
+    <t>salt</t>
+  </si>
+  <si>
+    <t>69B</t>
+  </si>
+  <si>
+    <t>patanjali tea</t>
+  </si>
+  <si>
+    <t>HTR</t>
+  </si>
+  <si>
+    <t>toothpaste</t>
+  </si>
+  <si>
+    <t>RML</t>
+  </si>
+  <si>
+    <t>carrots</t>
+  </si>
+  <si>
+    <t>M7X</t>
+  </si>
+  <si>
+    <t>snickers</t>
+  </si>
+  <si>
+    <t>PHK</t>
+  </si>
+  <si>
+    <t>mashed potato</t>
+  </si>
+  <si>
+    <t>MTR</t>
+  </si>
+  <si>
+    <t>cauliflower</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>ARZ</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>PBV</t>
+  </si>
+  <si>
+    <t>barbecue sauce</t>
+  </si>
+  <si>
+    <t>VQD</t>
+  </si>
+  <si>
+    <t>eggplant</t>
+  </si>
+  <si>
+    <t>8LP</t>
+  </si>
+  <si>
+    <t>sunsilk</t>
+  </si>
+  <si>
+    <t>C3Y</t>
+  </si>
+  <si>
+    <t>ketchup</t>
+  </si>
+  <si>
+    <t>FDS</t>
+  </si>
+  <si>
+    <t>axe body spray</t>
+  </si>
+  <si>
+    <t>FYD</t>
+  </si>
+  <si>
+    <t>double sided tape</t>
+  </si>
+  <si>
+    <t>VW7</t>
+  </si>
+  <si>
+    <t>A0G</t>
+  </si>
+  <si>
+    <t>W41</t>
+  </si>
+  <si>
+    <t>LRR</t>
+  </si>
+  <si>
+    <t>Z99</t>
+  </si>
+  <si>
+    <t>XX1</t>
+  </si>
+  <si>
+    <t>06Z</t>
+  </si>
+  <si>
+    <t>4Y8</t>
+  </si>
+  <si>
+    <t>XAE</t>
+  </si>
+  <si>
+    <t>L9F</t>
+  </si>
+  <si>
+    <t>NX3</t>
+  </si>
+  <si>
+    <t>ZYU</t>
+  </si>
+  <si>
+    <t>SKG</t>
+  </si>
+  <si>
+    <t>PKN</t>
+  </si>
+  <si>
+    <t>ORW</t>
+  </si>
+  <si>
+    <t>D6J</t>
+  </si>
+  <si>
+    <t>52T</t>
+  </si>
+  <si>
+    <t>FWN</t>
+  </si>
+  <si>
+    <t>61C</t>
+  </si>
+  <si>
+    <t>NY7</t>
+  </si>
+  <si>
+    <t>AQO</t>
+  </si>
+  <si>
+    <t>CGS</t>
+  </si>
+  <si>
+    <t>PW7</t>
+  </si>
+  <si>
+    <t>B2B</t>
+  </si>
+  <si>
+    <t>HXR</t>
+  </si>
+  <si>
+    <t>10Y</t>
+  </si>
+  <si>
+    <t>HJ3</t>
+  </si>
+  <si>
+    <t>70H</t>
+  </si>
+  <si>
+    <t>B7G</t>
+  </si>
+  <si>
+    <t>ZX5</t>
+  </si>
+  <si>
+    <t>UCR</t>
+  </si>
+  <si>
+    <t>MEL</t>
+  </si>
+  <si>
+    <t>6KO</t>
+  </si>
+  <si>
+    <t>MG8</t>
+  </si>
+  <si>
+    <t>FQC</t>
+  </si>
+  <si>
+    <t>LWD</t>
+  </si>
+  <si>
+    <t>84J</t>
+  </si>
+  <si>
+    <t>QFK</t>
+  </si>
+  <si>
+    <t>VD0</t>
+  </si>
+  <si>
+    <t>LRU</t>
+  </si>
+  <si>
+    <t>GVG</t>
+  </si>
+  <si>
+    <t>OXO</t>
+  </si>
+  <si>
+    <t>S30</t>
+  </si>
+  <si>
+    <t>8AK</t>
+  </si>
+  <si>
+    <t>QOR</t>
+  </si>
+  <si>
+    <t>DVQ</t>
+  </si>
+  <si>
+    <t>NLS</t>
+  </si>
+  <si>
+    <t>IW1</t>
+  </si>
+  <si>
+    <t>H8J</t>
+  </si>
+  <si>
+    <t>UZI</t>
+  </si>
+  <si>
+    <t>8IW</t>
+  </si>
+  <si>
+    <t>XZC</t>
+  </si>
+  <si>
+    <t>7MA</t>
+  </si>
+  <si>
+    <t>ZJG</t>
+  </si>
+  <si>
+    <t>RF5</t>
+  </si>
+  <si>
+    <t>3MC</t>
+  </si>
+  <si>
+    <t>QON</t>
+  </si>
+  <si>
+    <t>HW0</t>
+  </si>
+  <si>
+    <t>KN1</t>
+  </si>
+  <si>
+    <t>WWM</t>
+  </si>
+  <si>
+    <t>U3N</t>
+  </si>
+  <si>
+    <t>D5F</t>
+  </si>
+  <si>
+    <t>H4E</t>
+  </si>
+  <si>
+    <t>1R3</t>
+  </si>
+  <si>
+    <t>M8H</t>
+  </si>
+  <si>
+    <t>2JO</t>
+  </si>
+  <si>
+    <t>OTK</t>
   </si>
 </sst>
 </file>
@@ -567,11 +960,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -913,17 +1308,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7812CB-A4EC-4784-A7F8-094F4A663112}">
-  <dimension ref="A1:C85"/>
+  <dimension ref="A1:C188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.5546875" customWidth="1"/>
-    <col min="2" max="2" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -945,7 +1339,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -956,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -967,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>33</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -978,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>81</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -989,7 +1383,7 @@
         <v>12</v>
       </c>
       <c r="C6">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -1000,7 +1394,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1011,7 +1405,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -1022,7 +1416,7 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -1033,7 +1427,7 @@
         <v>20</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -1044,7 +1438,7 @@
         <v>22</v>
       </c>
       <c r="C11">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -1055,7 +1449,7 @@
         <v>24</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1066,7 +1460,7 @@
         <v>26</v>
       </c>
       <c r="C13">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1077,7 +1471,7 @@
         <v>28</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1088,7 +1482,7 @@
         <v>30</v>
       </c>
       <c r="C15">
-        <v>89</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1099,7 +1493,7 @@
         <v>32</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -1110,7 +1504,7 @@
         <v>34</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -1121,7 +1515,7 @@
         <v>36</v>
       </c>
       <c r="C18">
-        <v>55</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1132,7 +1526,7 @@
         <v>38</v>
       </c>
       <c r="C19">
-        <v>53</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -1143,7 +1537,7 @@
         <v>40</v>
       </c>
       <c r="C20">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -1154,7 +1548,7 @@
         <v>42</v>
       </c>
       <c r="C21">
-        <v>75</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -1165,7 +1559,7 @@
         <v>44</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -1176,7 +1570,7 @@
         <v>46</v>
       </c>
       <c r="C23">
-        <v>41</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -1187,7 +1581,7 @@
         <v>48</v>
       </c>
       <c r="C24">
-        <v>99</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -1198,7 +1592,7 @@
         <v>50</v>
       </c>
       <c r="C25">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1209,7 +1603,7 @@
         <v>52</v>
       </c>
       <c r="C26">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -1220,7 +1614,7 @@
         <v>54</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -1231,7 +1625,7 @@
         <v>56</v>
       </c>
       <c r="C28">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -1242,7 +1636,7 @@
         <v>58</v>
       </c>
       <c r="C29">
-        <v>96</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1253,7 +1647,7 @@
         <v>60</v>
       </c>
       <c r="C30">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -1264,7 +1658,7 @@
         <v>62</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1275,7 +1669,7 @@
         <v>64</v>
       </c>
       <c r="C32">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1286,7 +1680,7 @@
         <v>66</v>
       </c>
       <c r="C33">
-        <v>60</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1297,7 +1691,7 @@
         <v>68</v>
       </c>
       <c r="C34">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1308,7 +1702,7 @@
         <v>70</v>
       </c>
       <c r="C35">
-        <v>44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1319,7 +1713,7 @@
         <v>72</v>
       </c>
       <c r="C36">
-        <v>77</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1330,7 +1724,7 @@
         <v>74</v>
       </c>
       <c r="C37">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1341,7 +1735,7 @@
         <v>76</v>
       </c>
       <c r="C38">
-        <v>58</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1352,7 +1746,7 @@
         <v>78</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1363,7 +1757,7 @@
         <v>80</v>
       </c>
       <c r="C40">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1374,7 +1768,7 @@
         <v>82</v>
       </c>
       <c r="C41">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1385,7 +1779,7 @@
         <v>84</v>
       </c>
       <c r="C42">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1396,7 +1790,7 @@
         <v>86</v>
       </c>
       <c r="C43">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1407,7 +1801,7 @@
         <v>88</v>
       </c>
       <c r="C44">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1418,7 +1812,7 @@
         <v>90</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1429,7 +1823,7 @@
         <v>92</v>
       </c>
       <c r="C46">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1440,7 +1834,7 @@
         <v>94</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1451,7 +1845,7 @@
         <v>96</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -1462,7 +1856,7 @@
         <v>98</v>
       </c>
       <c r="C49">
-        <v>94</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -1473,7 +1867,7 @@
         <v>100</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -1484,7 +1878,7 @@
         <v>102</v>
       </c>
       <c r="C51">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -1495,7 +1889,7 @@
         <v>104</v>
       </c>
       <c r="C52">
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -1506,7 +1900,7 @@
         <v>106</v>
       </c>
       <c r="C53">
-        <v>87</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -1517,7 +1911,7 @@
         <v>108</v>
       </c>
       <c r="C54">
-        <v>66</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -1528,7 +1922,7 @@
         <v>110</v>
       </c>
       <c r="C55">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1539,7 +1933,7 @@
         <v>112</v>
       </c>
       <c r="C56">
-        <v>36</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1550,7 +1944,7 @@
         <v>114</v>
       </c>
       <c r="C57">
-        <v>35</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -1561,7 +1955,7 @@
         <v>116</v>
       </c>
       <c r="C58">
-        <v>50</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -1572,7 +1966,7 @@
         <v>118</v>
       </c>
       <c r="C59">
-        <v>34</v>
+        <v>46</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -1583,7 +1977,7 @@
         <v>120</v>
       </c>
       <c r="C60">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -1594,7 +1988,7 @@
         <v>122</v>
       </c>
       <c r="C61">
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -1605,7 +1999,7 @@
         <v>124</v>
       </c>
       <c r="C62">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -1616,7 +2010,7 @@
         <v>126</v>
       </c>
       <c r="C63">
-        <v>26</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -1627,7 +2021,7 @@
         <v>128</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -1638,7 +2032,7 @@
         <v>130</v>
       </c>
       <c r="C65">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -1649,7 +2043,7 @@
         <v>132</v>
       </c>
       <c r="C66">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -1660,7 +2054,7 @@
         <v>134</v>
       </c>
       <c r="C67">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -1671,7 +2065,7 @@
         <v>136</v>
       </c>
       <c r="C68">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -1682,7 +2076,7 @@
         <v>138</v>
       </c>
       <c r="C69">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -1693,7 +2087,7 @@
         <v>140</v>
       </c>
       <c r="C70">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -1704,7 +2098,7 @@
         <v>142</v>
       </c>
       <c r="C71">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -1715,7 +2109,7 @@
         <v>144</v>
       </c>
       <c r="C72">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -1726,7 +2120,7 @@
         <v>146</v>
       </c>
       <c r="C73">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -1737,7 +2131,7 @@
         <v>148</v>
       </c>
       <c r="C74">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -1748,7 +2142,7 @@
         <v>150</v>
       </c>
       <c r="C75">
-        <v>10</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -1759,7 +2153,7 @@
         <v>152</v>
       </c>
       <c r="C76">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -1770,7 +2164,7 @@
         <v>154</v>
       </c>
       <c r="C77">
-        <v>24</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -1781,7 +2175,7 @@
         <v>156</v>
       </c>
       <c r="C78">
-        <v>37</v>
+        <v>14</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -1792,7 +2186,7 @@
         <v>158</v>
       </c>
       <c r="C79">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1803,7 +2197,7 @@
         <v>160</v>
       </c>
       <c r="C80">
-        <v>21</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1814,7 +2208,7 @@
         <v>162</v>
       </c>
       <c r="C81">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1825,7 +2219,7 @@
         <v>164</v>
       </c>
       <c r="C82">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1836,7 +2230,7 @@
         <v>166</v>
       </c>
       <c r="C83">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1847,7 +2241,7 @@
         <v>168</v>
       </c>
       <c r="C84">
-        <v>89</v>
+        <v>18</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1858,7 +2252,927 @@
         <v>170</v>
       </c>
       <c r="C85">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>171</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>173</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>175</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C89">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>179</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C90">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>181</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C91">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>185</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>187</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C95">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C96">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>193</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C100">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C101">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>205</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C103">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C104">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>209</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C105">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>211</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C106">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>213</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C107">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>215</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>217</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C109">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>219</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C112">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C113">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C114">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C116">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>233</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>236</v>
+      </c>
+      <c r="C119">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>237</v>
+      </c>
+      <c r="C120">
         <v>40</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>239</v>
+      </c>
+      <c r="C122">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>241</v>
+      </c>
+      <c r="C124">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>242</v>
+      </c>
+      <c r="C125">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>243</v>
+      </c>
+      <c r="C126">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>244</v>
+      </c>
+      <c r="C127">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>245</v>
+      </c>
+      <c r="C128">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>246</v>
+      </c>
+      <c r="C129">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>247</v>
+      </c>
+      <c r="C130">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>248</v>
+      </c>
+      <c r="C131">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>249</v>
+      </c>
+      <c r="C132">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>250</v>
+      </c>
+      <c r="C133">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>251</v>
+      </c>
+      <c r="C134">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>252</v>
+      </c>
+      <c r="C135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>253</v>
+      </c>
+      <c r="C136">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>254</v>
+      </c>
+      <c r="C137">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>256</v>
+      </c>
+      <c r="C139">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>257</v>
+      </c>
+      <c r="C140">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>258</v>
+      </c>
+      <c r="C141">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>259</v>
+      </c>
+      <c r="C142">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>260</v>
+      </c>
+      <c r="C143">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>261</v>
+      </c>
+      <c r="C144">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>262</v>
+      </c>
+      <c r="C145">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>263</v>
+      </c>
+      <c r="C146">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>264</v>
+      </c>
+      <c r="C147">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>265</v>
+      </c>
+      <c r="C148">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>266</v>
+      </c>
+      <c r="C149">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>267</v>
+      </c>
+      <c r="C150">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>268</v>
+      </c>
+      <c r="C151">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>269</v>
+      </c>
+      <c r="C152">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>270</v>
+      </c>
+      <c r="C153">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>271</v>
+      </c>
+      <c r="C154">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>273</v>
+      </c>
+      <c r="C156">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>274</v>
+      </c>
+      <c r="C157">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>275</v>
+      </c>
+      <c r="C158">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>276</v>
+      </c>
+      <c r="C159">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>277</v>
+      </c>
+      <c r="C160">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>278</v>
+      </c>
+      <c r="C161">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>279</v>
+      </c>
+      <c r="C162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>280</v>
+      </c>
+      <c r="C163">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>144</v>
+      </c>
+      <c r="C164">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>281</v>
+      </c>
+      <c r="C165">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>282</v>
+      </c>
+      <c r="C166">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>283</v>
+      </c>
+      <c r="C167">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>284</v>
+      </c>
+      <c r="C168">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>285</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>286</v>
+      </c>
+      <c r="C170">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>206</v>
+      </c>
+      <c r="C171">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>287</v>
+      </c>
+      <c r="C172">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>288</v>
+      </c>
+      <c r="C173">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>289</v>
+      </c>
+      <c r="C174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>290</v>
+      </c>
+      <c r="C175">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>291</v>
+      </c>
+      <c r="C176">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>663</v>
+      </c>
+      <c r="C177">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>292</v>
+      </c>
+      <c r="C178">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>293</v>
+      </c>
+      <c r="C179">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>294</v>
+      </c>
+      <c r="C180">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>295</v>
+      </c>
+      <c r="C181">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>296</v>
+      </c>
+      <c r="C182">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>297</v>
+      </c>
+      <c r="C183">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>298</v>
+      </c>
+      <c r="C184">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>299</v>
+      </c>
+      <c r="C185">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>300</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>596</v>
+      </c>
+      <c r="C187">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>301</v>
+      </c>
+      <c r="C188">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Excel dataset/Product details.xlsx
+++ b/Excel dataset/Product details.xlsx
@@ -8,35 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saksh\Desktop\Akshansh\Coding\Github\Retail-etl\Excel dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C375BDA-F36F-4420-AA9F-D47A3E8E2246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10447123-9974-438B-A8C3-7EED9FC933B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="732" windowWidth="17280" windowHeight="9420" xr2:uid="{7766C29D-CFA9-4CD9-896C-E4E15AB9AA41}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="368">
   <si>
     <t>Product_ID</t>
   </si>
@@ -942,6 +931,204 @@
   </si>
   <si>
     <t>OTK</t>
+  </si>
+  <si>
+    <t>ice cream</t>
+  </si>
+  <si>
+    <t>salsa</t>
+  </si>
+  <si>
+    <t>soups</t>
+  </si>
+  <si>
+    <t>tofu</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yogurt </t>
+  </si>
+  <si>
+    <t>syrups</t>
+  </si>
+  <si>
+    <t>savory pies</t>
+  </si>
+  <si>
+    <t>seaweeds</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>avacado</t>
+  </si>
+  <si>
+    <t>bruscetta</t>
+  </si>
+  <si>
+    <t>apple juice</t>
+  </si>
+  <si>
+    <t>asian noodles</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>black beans</t>
+  </si>
+  <si>
+    <t>beer</t>
+  </si>
+  <si>
+    <t>barley</t>
+  </si>
+  <si>
+    <t>bisque</t>
+  </si>
+  <si>
+    <t>bluefish</t>
+  </si>
+  <si>
+    <t>cabbage</t>
+  </si>
+  <si>
+    <t>BBQ</t>
+  </si>
+  <si>
+    <t>bison</t>
+  </si>
+  <si>
+    <t>buritto</t>
+  </si>
+  <si>
+    <t>asparagus</t>
+  </si>
+  <si>
+    <t>arugala</t>
+  </si>
+  <si>
+    <t>artichoke</t>
+  </si>
+  <si>
+    <t>carne asada</t>
+  </si>
+  <si>
+    <t>celery</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>catfish</t>
+  </si>
+  <si>
+    <t>chips</t>
+  </si>
+  <si>
+    <t>chowder</t>
+  </si>
+  <si>
+    <t>curry</t>
+  </si>
+  <si>
+    <t>chimichanga</t>
+  </si>
+  <si>
+    <t>dips</t>
+  </si>
+  <si>
+    <t>dates</t>
+  </si>
+  <si>
+    <t>donuts</t>
+  </si>
+  <si>
+    <t>enchilda</t>
+  </si>
+  <si>
+    <t>eel sushi</t>
+  </si>
+  <si>
+    <t>edimame</t>
+  </si>
+  <si>
+    <t>fajita</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>franks</t>
+  </si>
+  <si>
+    <t>pen</t>
+  </si>
+  <si>
+    <t>fondu</t>
+  </si>
+  <si>
+    <t>french toast</t>
+  </si>
+  <si>
+    <t>french dip</t>
+  </si>
+  <si>
+    <t>garlic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ginger </t>
+  </si>
+  <si>
+    <t>goose</t>
+  </si>
+  <si>
+    <t>gnocchi</t>
+  </si>
+  <si>
+    <t>ham</t>
+  </si>
+  <si>
+    <t>italian bread</t>
+  </si>
+  <si>
+    <t>jelly</t>
+  </si>
+  <si>
+    <t>jimjam</t>
+  </si>
+  <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>kingfish</t>
+  </si>
+  <si>
+    <t>lemon</t>
+  </si>
+  <si>
+    <t>lamb</t>
+  </si>
+  <si>
+    <t>moose</t>
+  </si>
+  <si>
+    <t>milkshake</t>
+  </si>
+  <si>
+    <t>noodles</t>
+  </si>
+  <si>
+    <t>pizza</t>
+  </si>
+  <si>
+    <t>porter</t>
+  </si>
+  <si>
+    <t>whiskey</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1183,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{D70B42F9-88A0-45C3-8A15-33D41D26CCB8}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1054,7 +1241,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1106,7 +1293,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1307,11 +1494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A7812CB-A4EC-4784-A7F8-094F4A663112}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B189" sqref="B189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2611,6 +2798,9 @@
       <c r="A118" t="s">
         <v>235</v>
       </c>
+      <c r="B118" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="C118">
         <v>32</v>
       </c>
@@ -2619,6 +2809,9 @@
       <c r="A119" t="s">
         <v>236</v>
       </c>
+      <c r="B119" s="1" t="s">
+        <v>303</v>
+      </c>
       <c r="C119">
         <v>52</v>
       </c>
@@ -2627,6 +2820,9 @@
       <c r="A120" t="s">
         <v>237</v>
       </c>
+      <c r="B120" s="1" t="s">
+        <v>304</v>
+      </c>
       <c r="C120">
         <v>40</v>
       </c>
@@ -2635,6 +2831,9 @@
       <c r="A121" t="s">
         <v>238</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>305</v>
+      </c>
       <c r="C121">
         <v>71</v>
       </c>
@@ -2643,6 +2842,9 @@
       <c r="A122" t="s">
         <v>239</v>
       </c>
+      <c r="B122" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="C122">
         <v>35</v>
       </c>
@@ -2651,6 +2853,9 @@
       <c r="A123" t="s">
         <v>240</v>
       </c>
+      <c r="B123" s="1" t="s">
+        <v>307</v>
+      </c>
       <c r="C123">
         <v>60</v>
       </c>
@@ -2659,6 +2864,9 @@
       <c r="A124" t="s">
         <v>241</v>
       </c>
+      <c r="B124" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="C124">
         <v>47</v>
       </c>
@@ -2667,6 +2875,9 @@
       <c r="A125" t="s">
         <v>242</v>
       </c>
+      <c r="B125" s="1" t="s">
+        <v>309</v>
+      </c>
       <c r="C125">
         <v>90</v>
       </c>
@@ -2675,6 +2886,9 @@
       <c r="A126" t="s">
         <v>243</v>
       </c>
+      <c r="B126" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="C126">
         <v>73</v>
       </c>
@@ -2683,6 +2897,9 @@
       <c r="A127" t="s">
         <v>244</v>
       </c>
+      <c r="B127" s="1" t="s">
+        <v>311</v>
+      </c>
       <c r="C127">
         <v>58</v>
       </c>
@@ -2691,6 +2908,9 @@
       <c r="A128" t="s">
         <v>245</v>
       </c>
+      <c r="B128" s="1" t="s">
+        <v>312</v>
+      </c>
       <c r="C128">
         <v>88</v>
       </c>
@@ -2699,6 +2919,9 @@
       <c r="A129" t="s">
         <v>246</v>
       </c>
+      <c r="B129" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="C129">
         <v>74</v>
       </c>
@@ -2707,6 +2930,9 @@
       <c r="A130" t="s">
         <v>247</v>
       </c>
+      <c r="B130" s="1" t="s">
+        <v>314</v>
+      </c>
       <c r="C130">
         <v>80</v>
       </c>
@@ -2715,6 +2941,9 @@
       <c r="A131" t="s">
         <v>248</v>
       </c>
+      <c r="B131" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="C131">
         <v>62</v>
       </c>
@@ -2723,6 +2952,9 @@
       <c r="A132" t="s">
         <v>249</v>
       </c>
+      <c r="B132" s="1" t="s">
+        <v>316</v>
+      </c>
       <c r="C132">
         <v>78</v>
       </c>
@@ -2731,6 +2963,9 @@
       <c r="A133" t="s">
         <v>250</v>
       </c>
+      <c r="B133" s="1" t="s">
+        <v>317</v>
+      </c>
       <c r="C133">
         <v>48</v>
       </c>
@@ -2739,6 +2974,9 @@
       <c r="A134" t="s">
         <v>251</v>
       </c>
+      <c r="B134" s="1" t="s">
+        <v>204</v>
+      </c>
       <c r="C134">
         <v>34</v>
       </c>
@@ -2747,6 +2985,9 @@
       <c r="A135" t="s">
         <v>252</v>
       </c>
+      <c r="B135" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="C135">
         <v>14</v>
       </c>
@@ -2755,6 +2996,9 @@
       <c r="A136" t="s">
         <v>253</v>
       </c>
+      <c r="B136" s="1" t="s">
+        <v>319</v>
+      </c>
       <c r="C136">
         <v>30</v>
       </c>
@@ -2763,6 +3007,9 @@
       <c r="A137" t="s">
         <v>254</v>
       </c>
+      <c r="B137" s="1" t="s">
+        <v>320</v>
+      </c>
       <c r="C137">
         <v>59</v>
       </c>
@@ -2771,6 +3018,9 @@
       <c r="A138" t="s">
         <v>255</v>
       </c>
+      <c r="B138" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="C138">
         <v>12</v>
       </c>
@@ -2779,6 +3029,9 @@
       <c r="A139" t="s">
         <v>256</v>
       </c>
+      <c r="B139" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="C139">
         <v>46</v>
       </c>
@@ -2787,6 +3040,9 @@
       <c r="A140" t="s">
         <v>257</v>
       </c>
+      <c r="B140" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="C140">
         <v>26</v>
       </c>
@@ -2795,6 +3051,9 @@
       <c r="A141" t="s">
         <v>258</v>
       </c>
+      <c r="B141" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="C141">
         <v>16</v>
       </c>
@@ -2803,6 +3062,9 @@
       <c r="A142" t="s">
         <v>259</v>
       </c>
+      <c r="B142" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="C142">
         <v>33</v>
       </c>
@@ -2811,6 +3073,9 @@
       <c r="A143" t="s">
         <v>260</v>
       </c>
+      <c r="B143" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="C143">
         <v>68</v>
       </c>
@@ -2819,6 +3084,9 @@
       <c r="A144" t="s">
         <v>261</v>
       </c>
+      <c r="B144" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="C144">
         <v>48</v>
       </c>
@@ -2827,6 +3095,9 @@
       <c r="A145" t="s">
         <v>262</v>
       </c>
+      <c r="B145" s="1" t="s">
+        <v>328</v>
+      </c>
       <c r="C145">
         <v>60</v>
       </c>
@@ -2835,6 +3106,9 @@
       <c r="A146" t="s">
         <v>263</v>
       </c>
+      <c r="B146" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="C146">
         <v>23</v>
       </c>
@@ -2843,6 +3117,9 @@
       <c r="A147" t="s">
         <v>264</v>
       </c>
+      <c r="B147" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="C147">
         <v>18</v>
       </c>
@@ -2851,6 +3128,9 @@
       <c r="A148" t="s">
         <v>265</v>
       </c>
+      <c r="B148" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="C148">
         <v>76</v>
       </c>
@@ -2859,6 +3139,9 @@
       <c r="A149" t="s">
         <v>266</v>
       </c>
+      <c r="B149" s="1" t="s">
+        <v>331</v>
+      </c>
       <c r="C149">
         <v>80</v>
       </c>
@@ -2867,6 +3150,9 @@
       <c r="A150" t="s">
         <v>267</v>
       </c>
+      <c r="B150" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="C150">
         <v>42</v>
       </c>
@@ -2875,6 +3161,9 @@
       <c r="A151" t="s">
         <v>268</v>
       </c>
+      <c r="B151" s="1" t="s">
+        <v>332</v>
+      </c>
       <c r="C151">
         <v>56</v>
       </c>
@@ -2883,6 +3172,9 @@
       <c r="A152" t="s">
         <v>269</v>
       </c>
+      <c r="B152" s="1" t="s">
+        <v>333</v>
+      </c>
       <c r="C152">
         <v>75</v>
       </c>
@@ -2891,6 +3183,9 @@
       <c r="A153" t="s">
         <v>270</v>
       </c>
+      <c r="B153" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="C153">
         <v>6</v>
       </c>
@@ -2899,6 +3194,9 @@
       <c r="A154" t="s">
         <v>271</v>
       </c>
+      <c r="B154" s="1" t="s">
+        <v>334</v>
+      </c>
       <c r="C154">
         <v>59</v>
       </c>
@@ -2907,6 +3205,9 @@
       <c r="A155" t="s">
         <v>272</v>
       </c>
+      <c r="B155" s="1" t="s">
+        <v>335</v>
+      </c>
       <c r="C155">
         <v>37</v>
       </c>
@@ -2915,6 +3216,9 @@
       <c r="A156" t="s">
         <v>273</v>
       </c>
+      <c r="B156" s="1" t="s">
+        <v>336</v>
+      </c>
       <c r="C156">
         <v>41</v>
       </c>
@@ -2923,6 +3227,9 @@
       <c r="A157" t="s">
         <v>274</v>
       </c>
+      <c r="B157" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="C157">
         <v>65</v>
       </c>
@@ -2931,6 +3238,9 @@
       <c r="A158" t="s">
         <v>275</v>
       </c>
+      <c r="B158" s="1" t="s">
+        <v>338</v>
+      </c>
       <c r="C158">
         <v>43</v>
       </c>
@@ -2939,6 +3249,9 @@
       <c r="A159" t="s">
         <v>276</v>
       </c>
+      <c r="B159" s="1" t="s">
+        <v>339</v>
+      </c>
       <c r="C159">
         <v>59</v>
       </c>
@@ -2947,6 +3260,9 @@
       <c r="A160" t="s">
         <v>277</v>
       </c>
+      <c r="B160" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="C160">
         <v>68</v>
       </c>
@@ -2955,6 +3271,9 @@
       <c r="A161" t="s">
         <v>278</v>
       </c>
+      <c r="B161" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="C161">
         <v>34</v>
       </c>
@@ -2963,6 +3282,9 @@
       <c r="A162" t="s">
         <v>279</v>
       </c>
+      <c r="B162" s="1" t="s">
+        <v>341</v>
+      </c>
       <c r="C162">
         <v>10</v>
       </c>
@@ -2971,6 +3293,9 @@
       <c r="A163" t="s">
         <v>280</v>
       </c>
+      <c r="B163" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="C163">
         <v>35</v>
       </c>
@@ -2979,6 +3304,9 @@
       <c r="A164">
         <v>144</v>
       </c>
+      <c r="B164" s="1" t="s">
+        <v>343</v>
+      </c>
       <c r="C164">
         <v>6</v>
       </c>
@@ -2987,6 +3315,9 @@
       <c r="A165" t="s">
         <v>281</v>
       </c>
+      <c r="B165" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="C165">
         <v>20</v>
       </c>
@@ -2995,6 +3326,9 @@
       <c r="A166" t="s">
         <v>282</v>
       </c>
+      <c r="B166" s="1" t="s">
+        <v>345</v>
+      </c>
       <c r="C166">
         <v>41</v>
       </c>
@@ -3003,6 +3337,9 @@
       <c r="A167" t="s">
         <v>283</v>
       </c>
+      <c r="B167" s="1" t="s">
+        <v>346</v>
+      </c>
       <c r="C167">
         <v>32</v>
       </c>
@@ -3011,6 +3348,9 @@
       <c r="A168" t="s">
         <v>284</v>
       </c>
+      <c r="B168" s="1" t="s">
+        <v>347</v>
+      </c>
       <c r="C168">
         <v>99</v>
       </c>
@@ -3019,6 +3359,9 @@
       <c r="A169" t="s">
         <v>285</v>
       </c>
+      <c r="B169" s="1" t="s">
+        <v>348</v>
+      </c>
       <c r="C169">
         <v>3</v>
       </c>
@@ -3027,6 +3370,9 @@
       <c r="A170" t="s">
         <v>286</v>
       </c>
+      <c r="B170" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="C170">
         <v>36</v>
       </c>
@@ -3035,6 +3381,9 @@
       <c r="A171">
         <v>206</v>
       </c>
+      <c r="B171" s="1" t="s">
+        <v>350</v>
+      </c>
       <c r="C171">
         <v>66</v>
       </c>
@@ -3043,6 +3392,9 @@
       <c r="A172" t="s">
         <v>287</v>
       </c>
+      <c r="B172" s="1" t="s">
+        <v>351</v>
+      </c>
       <c r="C172">
         <v>91</v>
       </c>
@@ -3051,6 +3403,9 @@
       <c r="A173" t="s">
         <v>288</v>
       </c>
+      <c r="B173" s="1" t="s">
+        <v>352</v>
+      </c>
       <c r="C173">
         <v>65</v>
       </c>
@@ -3059,6 +3414,9 @@
       <c r="A174" t="s">
         <v>289</v>
       </c>
+      <c r="B174" s="1" t="s">
+        <v>353</v>
+      </c>
       <c r="C174">
         <v>8</v>
       </c>
@@ -3067,6 +3425,9 @@
       <c r="A175" t="s">
         <v>290</v>
       </c>
+      <c r="B175" s="1" t="s">
+        <v>354</v>
+      </c>
       <c r="C175">
         <v>96</v>
       </c>
@@ -3075,6 +3436,9 @@
       <c r="A176" t="s">
         <v>291</v>
       </c>
+      <c r="B176" s="1" t="s">
+        <v>355</v>
+      </c>
       <c r="C176">
         <v>10</v>
       </c>
@@ -3083,6 +3447,9 @@
       <c r="A177">
         <v>663</v>
       </c>
+      <c r="B177" s="1" t="s">
+        <v>356</v>
+      </c>
       <c r="C177">
         <v>32</v>
       </c>
@@ -3091,6 +3458,9 @@
       <c r="A178" t="s">
         <v>292</v>
       </c>
+      <c r="B178" s="1" t="s">
+        <v>357</v>
+      </c>
       <c r="C178">
         <v>48</v>
       </c>
@@ -3099,6 +3469,9 @@
       <c r="A179" t="s">
         <v>293</v>
       </c>
+      <c r="B179" s="1" t="s">
+        <v>358</v>
+      </c>
       <c r="C179">
         <v>14</v>
       </c>
@@ -3107,6 +3480,9 @@
       <c r="A180" t="s">
         <v>294</v>
       </c>
+      <c r="B180" s="1" t="s">
+        <v>359</v>
+      </c>
       <c r="C180">
         <v>53</v>
       </c>
@@ -3115,6 +3491,9 @@
       <c r="A181" t="s">
         <v>295</v>
       </c>
+      <c r="B181" s="1" t="s">
+        <v>360</v>
+      </c>
       <c r="C181">
         <v>6</v>
       </c>
@@ -3123,6 +3502,9 @@
       <c r="A182" t="s">
         <v>296</v>
       </c>
+      <c r="B182" s="1" t="s">
+        <v>361</v>
+      </c>
       <c r="C182">
         <v>94</v>
       </c>
@@ -3131,6 +3513,9 @@
       <c r="A183" t="s">
         <v>297</v>
       </c>
+      <c r="B183" s="1" t="s">
+        <v>362</v>
+      </c>
       <c r="C183">
         <v>33</v>
       </c>
@@ -3139,6 +3524,9 @@
       <c r="A184" t="s">
         <v>298</v>
       </c>
+      <c r="B184" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="C184">
         <v>62</v>
       </c>
@@ -3147,6 +3535,9 @@
       <c r="A185" t="s">
         <v>299</v>
       </c>
+      <c r="B185" s="1" t="s">
+        <v>364</v>
+      </c>
       <c r="C185">
         <v>4</v>
       </c>
@@ -3155,6 +3546,9 @@
       <c r="A186" t="s">
         <v>300</v>
       </c>
+      <c r="B186" s="1" t="s">
+        <v>365</v>
+      </c>
       <c r="C186">
         <v>3</v>
       </c>
@@ -3163,6 +3557,9 @@
       <c r="A187">
         <v>596</v>
       </c>
+      <c r="B187" s="1" t="s">
+        <v>366</v>
+      </c>
       <c r="C187">
         <v>42</v>
       </c>
@@ -3170,6 +3567,9 @@
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>301</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="C188">
         <v>65</v>
